--- a/BA.3.2 in Perth.xlsx
+++ b/BA.3.2 in Perth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B14174-4871-4C67-8051-C3337E6D63A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1383B7C2-0DFA-49F4-B019-DED27112A95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{D6ABF66D-C054-46A7-9305-0C358A93B849}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,6 +189,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -196,124 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -344,7 +227,16 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -426,9 +318,6 @@
       <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -449,6 +338,118 @@
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -463,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D33E3CE-FA02-4556-8040-5D2F8699E36E}" name="Table6" displayName="Table6" ref="B4:I16" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19" dataCellStyle="Comma">
-  <autoFilter ref="B4:I15" xr:uid="{56B9C249-D174-4D34-958F-E7F0C75BFAA9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D33E3CE-FA02-4556-8040-5D2F8699E36E}" name="Table6" displayName="Table6" ref="B4:I21" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19" dataCellStyle="Comma">
+  <autoFilter ref="B4:I20" xr:uid="{56B9C249-D174-4D34-958F-E7F0C75BFAA9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -490,7 +491,7 @@
       <calculatedColumnFormula>F5*2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{CBFFCEC6-5BC1-45E0-9BA3-E3E03BE2A941}" name="BA.3.2 frequency" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{26AC957B-5CD4-472C-B25C-AFDA188BC375}" name="Estimated BA.3.2 infections per week" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{26AC957B-5CD4-472C-B25C-AFDA188BC375}" name="Estimated BA.3.2 infections per week" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>G5*H5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -499,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C4966EE-7DBD-476F-8261-498909A07278}" name="Table69" displayName="Table69" ref="B21:H26" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Comma">
-  <autoFilter ref="B21:H25" xr:uid="{11DB7DCE-F291-4E24-93E5-E9C7A82877AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C4966EE-7DBD-476F-8261-498909A07278}" name="Table69" displayName="Table69" ref="B26:H31" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" dataCellStyle="Comma">
+  <autoFilter ref="B26:H30" xr:uid="{11DB7DCE-F291-4E24-93E5-E9C7A82877AA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -510,20 +511,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3C1ED70C-F107-4C51-A9FB-49DF8AE9CA0E}" name="Week ending" totalsRowLabel="Total" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{606D29C1-443A-4927-97CD-BEAF119F05E3}" name="daily cases/100K, wrt wastewater" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{DF64FF50-C799-451C-9207-7DE5DA9AF6AE}" name="weekly cases/100K" dataDxfId="5" dataCellStyle="Comma">
-      <calculatedColumnFormula>C22*7</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3C1ED70C-F107-4C51-A9FB-49DF8AE9CA0E}" name="Week ending" totalsRowLabel="Total" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{606D29C1-443A-4927-97CD-BEAF119F05E3}" name="daily cases/100K, wrt wastewater" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{DF64FF50-C799-451C-9207-7DE5DA9AF6AE}" name="weekly cases/100K" dataDxfId="6" dataCellStyle="Comma">
+      <calculatedColumnFormula>C27*7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AD3B5F04-B52F-4AA8-AA93-699CB4BEDB33}" name="weekly cases, scaled to Perth" dataDxfId="4" dataCellStyle="Comma">
-      <calculatedColumnFormula>D22*23</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{AD3B5F04-B52F-4AA8-AA93-699CB4BEDB33}" name="weekly cases, scaled to Perth" dataDxfId="5" dataCellStyle="Comma">
+      <calculatedColumnFormula>D27*23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B262AE2F-356C-4D2D-A544-30BEDFB37F27}" name="x 5 for underreporting" dataDxfId="3" dataCellStyle="Comma">
-      <calculatedColumnFormula>E22*5</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{B262AE2F-356C-4D2D-A544-30BEDFB37F27}" name="x 5 for underreporting" dataDxfId="4" dataCellStyle="Comma">
+      <calculatedColumnFormula>E27*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DAACC682-3C2E-487A-A624-F38B2285E3A5}" name="BA.3.2 level" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{79C0C0C5-FC32-4111-9E51-1D0C44467C6A}" name="Estimated BA.3.2 infections per week" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Comma" totalsRowCellStyle="Total">
-      <calculatedColumnFormula>F22*G22</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{DAACC682-3C2E-487A-A624-F38B2285E3A5}" name="BA.3.2 level" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{79C0C0C5-FC32-4111-9E51-1D0C44467C6A}" name="Estimated BA.3.2 infections per week" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>F27*G27</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -830,10 +831,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1043,7 +1044,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="4">
-        <f t="shared" ref="B10:B15" si="5">B9+7</f>
+        <f t="shared" ref="B10:B20" si="5">B9+7</f>
         <v>45928</v>
       </c>
       <c r="C10" s="5">
@@ -1236,166 +1237,326 @@
         <v>1128.0325466666666</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="4">
+        <f t="shared" si="5"/>
+        <v>45970</v>
+      </c>
+      <c r="C16" s="5">
+        <v>617</v>
+      </c>
+      <c r="D16" s="6">
+        <f>Table6[[#This Row],[wastewater concentration]]/30000*200</f>
+        <v>4.1133333333333333</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" ref="E16" si="9">D16*7</f>
+        <v>28.793333333333333</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16" si="10">E16*23</f>
+        <v>662.24666666666667</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" ref="G16" si="11">F16*2</f>
+        <v>1324.4933333333333</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.253</v>
+      </c>
+      <c r="I16" s="9">
+        <f>G16*H16</f>
+        <v>335.09681333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="4">
+        <f t="shared" si="5"/>
+        <v>45977</v>
+      </c>
+      <c r="C17" s="5">
+        <v>77</v>
+      </c>
+      <c r="D17" s="6">
+        <f>Table6[[#This Row],[wastewater concentration]]/30000*200</f>
+        <v>0.51333333333333331</v>
+      </c>
+      <c r="E17" s="10">
+        <f>D17*7</f>
+        <v>3.5933333333333333</v>
+      </c>
+      <c r="F17" s="10">
+        <f>E17*23</f>
+        <v>82.646666666666661</v>
+      </c>
+      <c r="G17" s="10">
+        <f>F17*2</f>
+        <v>165.29333333333332</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.253</v>
+      </c>
+      <c r="I17" s="9">
+        <f>G17*H17</f>
+        <v>41.81921333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="4">
+        <f t="shared" si="5"/>
+        <v>45984</v>
+      </c>
+      <c r="C18" s="5">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6">
+        <f>Table6[[#This Row],[wastewater concentration]]/30000*200</f>
+        <v>0.35333333333333333</v>
+      </c>
+      <c r="E18" s="10">
+        <f>D18*7</f>
+        <v>2.4733333333333332</v>
+      </c>
+      <c r="F18" s="10">
+        <f>E18*23</f>
+        <v>56.886666666666663</v>
+      </c>
+      <c r="G18" s="10">
+        <f>F18*2</f>
+        <v>113.77333333333333</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.253</v>
+      </c>
+      <c r="I18" s="9">
+        <f>G18*H18</f>
+        <v>28.784653333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="4">
+        <f t="shared" si="5"/>
+        <v>45991</v>
+      </c>
+      <c r="C19" s="5">
+        <v>356</v>
+      </c>
+      <c r="D19" s="6">
+        <f>Table6[[#This Row],[wastewater concentration]]/30000*200</f>
+        <v>2.3733333333333331</v>
+      </c>
+      <c r="E19" s="10">
+        <f>D19*7</f>
+        <v>16.61333333333333</v>
+      </c>
+      <c r="F19" s="10">
+        <f>E19*23</f>
+        <v>382.10666666666657</v>
+      </c>
+      <c r="G19" s="10">
+        <f>F19*2</f>
+        <v>764.21333333333314</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="4">
+        <f t="shared" si="5"/>
+        <v>45998</v>
+      </c>
+      <c r="C20" s="5">
+        <v>656</v>
+      </c>
+      <c r="D20" s="6">
+        <f>Table6[[#This Row],[wastewater concentration]]/30000*200</f>
+        <v>4.3733333333333331</v>
+      </c>
+      <c r="E20" s="10">
+        <f>D20*7</f>
+        <v>30.61333333333333</v>
+      </c>
+      <c r="F20" s="10">
+        <f>E20*23</f>
+        <v>704.10666666666657</v>
+      </c>
+      <c r="G20" s="10">
+        <f>F20*2</f>
+        <v>1408.2133333333331</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.189</v>
+      </c>
+      <c r="I20" s="9">
+        <f>G20*H20</f>
+        <v>266.15231999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I21" s="12">
         <f>SUBTOTAL(109,Table6[Estimated BA.3.2 infections per week])</f>
-        <v>5750.7441021333334</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="2:8" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B19" s="1" t="s">
+        <v>6422.5971021333335</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:9" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="2:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="B21" s="2" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="4">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="4">
         <v>45891</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C27" s="13">
         <v>9.5</v>
       </c>
-      <c r="D22" s="7">
-        <f>C22*7</f>
+      <c r="D27" s="7">
+        <f>C27*7</f>
         <v>66.5</v>
       </c>
-      <c r="E22" s="7">
-        <f>D22*23</f>
+      <c r="E27" s="7">
+        <f>D27*23</f>
         <v>1529.5</v>
       </c>
-      <c r="F22" s="7">
-        <f>E22*5</f>
+      <c r="F27" s="7">
+        <f>E27*5</f>
         <v>7647.5</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G27" s="14">
         <v>0.15</v>
       </c>
-      <c r="H22" s="9">
-        <f>F22*G22</f>
+      <c r="H27" s="9">
+        <f>F27*G27</f>
         <v>1147.125</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="4">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="4">
         <v>45898</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C28" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="D23" s="7">
-        <f>C23*7</f>
+      <c r="D28" s="7">
+        <f>C28*7</f>
         <v>71.399999999999991</v>
       </c>
-      <c r="E23" s="7">
-        <f>D23*23</f>
+      <c r="E28" s="7">
+        <f>D28*23</f>
         <v>1642.1999999999998</v>
       </c>
-      <c r="F23" s="7">
-        <f>E23*5</f>
+      <c r="F28" s="7">
+        <f>E28*5</f>
         <v>8211</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G28" s="14">
         <v>0.05</v>
       </c>
-      <c r="H23" s="9">
-        <f>F23*G23</f>
+      <c r="H28" s="9">
+        <f>F28*G28</f>
         <v>410.55</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="4">
-        <f>B23+7</f>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="4">
+        <f>B28+7</f>
         <v>45905</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C29" s="6">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
-        <f>C24*7</f>
+      <c r="D29" s="7">
+        <f>C29*7</f>
         <v>56</v>
       </c>
-      <c r="E24" s="7">
-        <f>D24*23</f>
+      <c r="E29" s="7">
+        <f>D29*23</f>
         <v>1288</v>
       </c>
-      <c r="F24" s="7">
-        <f>E24*5</f>
+      <c r="F29" s="7">
+        <f>E29*5</f>
         <v>6440</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G29" s="14">
         <v>0.03</v>
       </c>
-      <c r="H24" s="9">
-        <f>F24*G24</f>
+      <c r="H29" s="9">
+        <f>F29*G29</f>
         <v>193.2</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="4">
         <v>45914</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C30" s="6">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
-        <f>C25*7</f>
+      <c r="D30" s="7">
+        <f>C30*7</f>
         <v>38.5</v>
       </c>
-      <c r="E25" s="7">
-        <f>D25*23</f>
+      <c r="E30" s="7">
+        <f>D30*23</f>
         <v>885.5</v>
       </c>
-      <c r="F25" s="7">
-        <f>E25*5</f>
+      <c r="F30" s="7">
+        <f>E30*5</f>
         <v>4427.5</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G30" s="14">
         <v>0.1</v>
       </c>
-      <c r="H25" s="9">
-        <f>F25*G25</f>
+      <c r="H30" s="9">
+        <f>F30*G30</f>
         <v>442.75</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" t="s">
+    <row r="31" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H31" s="12">
         <f>SUBTOTAL(109,Table69[Estimated BA.3.2 infections per week])</f>
         <v>2193.625</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
